--- a/Stored_learn_pandas.xlsx
+++ b/Stored_learn_pandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Categoria</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Offerte libere</t>
+  </si>
+  <si>
+    <t>Semi, Ortaggi</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,6 +810,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
